--- a/Predictions/4/buckets.xlsx
+++ b/Predictions/4/buckets.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="o4WahUe9wWzA1yRo3al6F1e5K5ZJRYp+5dVGbSxmKec="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="GwnvBx//BcVqFbrPxMrbUf6DmQr5AjVuEy5KfE9hVog="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Lower</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>MAE</t>
+  </si>
+  <si>
+    <t>MAPE (%)</t>
   </si>
 </sst>
 </file>
@@ -92,7 +95,7 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -332,6 +335,9 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -352,6 +358,9 @@
       <c r="F2" s="2">
         <v>1809.768930278549</v>
       </c>
+      <c r="G2" s="2">
+        <v>1.137668838919149</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -372,6 +381,9 @@
       <c r="F3" s="2">
         <v>2949.835282153108</v>
       </c>
+      <c r="G3" s="2">
+        <v>1.107259572273046</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -392,6 +404,9 @@
       <c r="F4" s="2">
         <v>4236.592375109553</v>
       </c>
+      <c r="G4" s="2">
+        <v>1.026070645191113</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -412,6 +427,9 @@
       <c r="F5" s="2">
         <v>6198.489609596352</v>
       </c>
+      <c r="G5" s="2">
+        <v>1.114076757106135</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -432,6 +450,9 @@
       <c r="F6" s="2">
         <v>8894.95521838279</v>
       </c>
+      <c r="G6" s="2">
+        <v>1.287108028287489</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -452,6 +473,9 @@
       <c r="F7" s="2">
         <v>11270.36611198306</v>
       </c>
+      <c r="G7" s="2">
+        <v>1.369541467407601</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -472,6 +496,9 @@
       <c r="F8" s="2">
         <v>11437.12079753835</v>
       </c>
+      <c r="G8" s="2">
+        <v>1.171746816392794</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -492,6 +519,9 @@
       <c r="F9" s="2">
         <v>11514.27662003883</v>
       </c>
+      <c r="G9" s="2">
+        <v>1.06103386653175</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -512,6 +542,9 @@
       <c r="F10" s="2">
         <v>18845.96459220731</v>
       </c>
+      <c r="G10" s="2">
+        <v>1.491186201848516</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -532,11 +565,10 @@
       <c r="F11" s="2">
         <v>20990.76175720873</v>
       </c>
+      <c r="G11" s="2">
+        <v>1.520512022536001</v>
+      </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -1403,6 +1435,120 @@
     <row r="884" ht="15.75" customHeight="1"/>
     <row r="885" ht="15.75" customHeight="1"/>
     <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
@@ -1440,6 +1586,9 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -1460,6 +1609,9 @@
       <c r="F2" s="2">
         <v>1834.342272256458</v>
       </c>
+      <c r="G2" s="2">
+        <v>1.162344678166155</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -1480,6 +1632,9 @@
       <c r="F3" s="2">
         <v>3104.19786511849</v>
       </c>
+      <c r="G3" s="2">
+        <v>1.163480425759533</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -1500,6 +1655,9 @@
       <c r="F4" s="2">
         <v>4631.054646050943</v>
       </c>
+      <c r="G4" s="2">
+        <v>1.08593337028839</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -1520,6 +1678,9 @@
       <c r="F5" s="2">
         <v>5991.557487532891</v>
       </c>
+      <c r="G5" s="2">
+        <v>1.062189953057388</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -1540,6 +1701,9 @@
       <c r="F6" s="2">
         <v>7852.568583397318</v>
       </c>
+      <c r="G6" s="2">
+        <v>1.128886164281552</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
@@ -1560,6 +1724,9 @@
       <c r="F7" s="2">
         <v>8696.619381380637</v>
       </c>
+      <c r="G7" s="2">
+        <v>1.036382963724421</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
@@ -1580,6 +1747,9 @@
       <c r="F8" s="2">
         <v>12486.20789283146</v>
       </c>
+      <c r="G8" s="2">
+        <v>1.242322966952531</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -1600,6 +1770,9 @@
       <c r="F9" s="2">
         <v>11923.17454947249</v>
       </c>
+      <c r="G9" s="2">
+        <v>1.048130106018086</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -1620,6 +1793,9 @@
       <c r="F10" s="2">
         <v>11333.50370713053</v>
       </c>
+      <c r="G10" s="2">
+        <v>0.8898799395913749</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -1639,6 +1815,9 @@
       </c>
       <c r="F11" s="2">
         <v>13039.02188147631</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.9342840424008627</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
